--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H2">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I2">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J2">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.947145421090008</v>
+        <v>3.928642942386223</v>
       </c>
       <c r="R2">
-        <v>0.947145421090008</v>
+        <v>35.357786481476</v>
       </c>
       <c r="S2">
-        <v>7.402238884641862E-05</v>
+        <v>0.0001833559519324739</v>
       </c>
       <c r="T2">
-        <v>7.402238884641862E-05</v>
+        <v>0.0001997229376928731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H3">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I3">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J3">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>59.89886873908807</v>
+        <v>198.0777932004416</v>
       </c>
       <c r="R3">
-        <v>59.89886873908807</v>
+        <v>1782.700138803974</v>
       </c>
       <c r="S3">
-        <v>0.004681284683995757</v>
+        <v>0.009244602490368081</v>
       </c>
       <c r="T3">
-        <v>0.004681284683995757</v>
+        <v>0.01006980764856294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H4">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I4">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J4">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.444862731862126</v>
+        <v>0.4291068777913334</v>
       </c>
       <c r="R4">
-        <v>0.444862731862126</v>
+        <v>3.861961900122001</v>
       </c>
       <c r="S4">
-        <v>3.476741943521365E-05</v>
+        <v>2.002709363310389E-05</v>
       </c>
       <c r="T4">
-        <v>3.476741943521365E-05</v>
+        <v>2.181478120397647E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H5">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I5">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J5">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>18.90066068560165</v>
+        <v>2.125201136942001</v>
       </c>
       <c r="R5">
-        <v>18.90066068560165</v>
+        <v>19.126810232478</v>
       </c>
       <c r="S5">
-        <v>0.001477145983679805</v>
+        <v>9.918648327844604E-05</v>
       </c>
       <c r="T5">
-        <v>0.001477145983679805</v>
+        <v>0.0001080402114630662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>139.882835853992</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H6">
-        <v>139.882835853992</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I6">
-        <v>0.8311332263915838</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J6">
-        <v>0.8311332263915838</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>125.6065639803942</v>
+        <v>61.85754808248601</v>
       </c>
       <c r="R6">
-        <v>125.6065639803942</v>
+        <v>371.145288494916</v>
       </c>
       <c r="S6">
-        <v>0.009816547399784905</v>
+        <v>0.002886989166285494</v>
       </c>
       <c r="T6">
-        <v>0.009816547399784905</v>
+        <v>0.002096461195836123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H7">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J7">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>7943.543748510097</v>
+        <v>177.3364716120689</v>
       </c>
       <c r="R7">
-        <v>7943.543748510097</v>
+        <v>1596.02824450862</v>
       </c>
       <c r="S7">
-        <v>0.6208128879449802</v>
+        <v>0.008276572353767348</v>
       </c>
       <c r="T7">
-        <v>0.6208128879449802</v>
+        <v>0.009015367797445731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H8">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J8">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>58.99588167551618</v>
+        <v>8941.107009723793</v>
       </c>
       <c r="R8">
-        <v>58.99588167551618</v>
+        <v>80469.96308751414</v>
       </c>
       <c r="S8">
-        <v>0.004610713409453691</v>
+        <v>0.4172955422877551</v>
       </c>
       <c r="T8">
-        <v>0.004610713409453691</v>
+        <v>0.4545447841395662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H9">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J9">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>2506.528557088528</v>
+        <v>19.36961458904334</v>
       </c>
       <c r="R9">
-        <v>2506.528557088528</v>
+        <v>174.32653130139</v>
       </c>
       <c r="S9">
-        <v>0.1958930776373649</v>
+        <v>0.0009040104111324516</v>
       </c>
       <c r="T9">
-        <v>0.1958930776373649</v>
+        <v>0.0009847055037668403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.47720469682795</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H10">
-        <v>2.47720469682795</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.01471865450494613</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J10">
-        <v>0.01471865450494613</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>2.224384202286481</v>
+        <v>95.93024273729</v>
       </c>
       <c r="R10">
-        <v>2.224384202286481</v>
+        <v>863.3721846356101</v>
       </c>
       <c r="S10">
-        <v>0.0001738426103311473</v>
+        <v>0.004477215474696578</v>
       </c>
       <c r="T10">
-        <v>0.0001738426103311473</v>
+        <v>0.004876867196652051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.47720469682795</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H11">
-        <v>2.47720469682795</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.01471865450494613</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J11">
-        <v>0.01471865450494613</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>140.6733268104955</v>
+        <v>2792.21081691357</v>
       </c>
       <c r="R11">
-        <v>140.6733268104955</v>
+        <v>16753.26490148142</v>
       </c>
       <c r="S11">
-        <v>0.01099406222700439</v>
+        <v>0.130316875277134</v>
       </c>
       <c r="T11">
-        <v>0.01099406222700439</v>
+        <v>0.09463293987093199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H12">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I12">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J12">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>1.044766316666892</v>
+        <v>7.226863127247555</v>
       </c>
       <c r="R12">
-        <v>1.044766316666892</v>
+        <v>65.041768145228</v>
       </c>
       <c r="S12">
-        <v>8.165176838099068E-05</v>
+        <v>0.0003372890811444736</v>
       </c>
       <c r="T12">
-        <v>8.165176838099068E-05</v>
+        <v>0.0003673966698540171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H13">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I13">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J13">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>44.38846464933093</v>
+        <v>364.3703744523468</v>
       </c>
       <c r="R13">
-        <v>44.38846464933093</v>
+        <v>3279.333370071122</v>
       </c>
       <c r="S13">
-        <v>0.0034690978992296</v>
+        <v>0.01700573909196302</v>
       </c>
       <c r="T13">
-        <v>0.0034690978992296</v>
+        <v>0.01852373011777781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H14">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I14">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J14">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>19.45930551231135</v>
+        <v>0.7893556931073333</v>
       </c>
       <c r="R14">
-        <v>19.45930551231135</v>
+        <v>7.104201237966</v>
       </c>
       <c r="S14">
-        <v>0.001520805831121347</v>
+        <v>3.684047307060773E-05</v>
       </c>
       <c r="T14">
-        <v>0.001520805831121347</v>
+        <v>4.012898097993957E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H15">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I15">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J15">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>1230.635085892458</v>
+        <v>3.909374804426</v>
       </c>
       <c r="R15">
-        <v>1230.635085892458</v>
+        <v>35.184373239834</v>
       </c>
       <c r="S15">
-        <v>0.09617799635365659</v>
+        <v>0.0001824566775953876</v>
       </c>
       <c r="T15">
-        <v>0.09617799635365659</v>
+        <v>0.0001987433910214849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H16">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I16">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J16">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>9.13980009572775</v>
+        <v>113.788918956258</v>
       </c>
       <c r="R16">
-        <v>9.13980009572775</v>
+        <v>682.7335137375479</v>
       </c>
       <c r="S16">
-        <v>0.0007143040779164582</v>
+        <v>0.005310708013062462</v>
       </c>
       <c r="T16">
-        <v>0.0007143040779164582</v>
+        <v>0.003856506772460954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H17">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I17">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J17">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>388.3181214584606</v>
+        <v>122.7844965682565</v>
       </c>
       <c r="R17">
-        <v>388.3181214584606</v>
+        <v>1105.060469114308</v>
       </c>
       <c r="S17">
-        <v>0.03034828057303927</v>
+        <v>0.005730545784124599</v>
       </c>
       <c r="T17">
-        <v>0.03034828057303927</v>
+        <v>0.006242074099729126</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H18">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I18">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J18">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>2.889471994248673</v>
+        <v>6190.657302313949</v>
       </c>
       <c r="R18">
-        <v>2.889471994248673</v>
+        <v>55715.91572082554</v>
       </c>
       <c r="S18">
-        <v>0.0002258213097551218</v>
+        <v>0.2889277237457595</v>
       </c>
       <c r="T18">
-        <v>0.0002258213097551218</v>
+        <v>0.3147184106064345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H19">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I19">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J19">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>182.7344564571619</v>
+        <v>13.41116327858067</v>
       </c>
       <c r="R19">
-        <v>182.7344564571619</v>
+        <v>120.700469507226</v>
       </c>
       <c r="S19">
-        <v>0.0142812715875713</v>
+        <v>0.0006259201066443594</v>
       </c>
       <c r="T19">
-        <v>0.0142812715875713</v>
+        <v>0.0006817918979040652</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H20">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I20">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J20">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>1.357149996587922</v>
+        <v>66.420327714286</v>
       </c>
       <c r="R20">
-        <v>1.357149996587922</v>
+        <v>597.7829494285739</v>
       </c>
       <c r="S20">
-        <v>0.0001060655339015782</v>
+        <v>0.003099941275987436</v>
       </c>
       <c r="T20">
-        <v>0.0001060655339015782</v>
+        <v>0.003376652744513124</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H21">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I21">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J21">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>57.66055402663766</v>
+        <v>1933.275182203638</v>
       </c>
       <c r="R21">
-        <v>57.66055402663766</v>
+        <v>11599.65109322183</v>
       </c>
       <c r="S21">
-        <v>0.004506353360551267</v>
+        <v>0.09022899677542809</v>
       </c>
       <c r="T21">
-        <v>0.004506353360551267</v>
+        <v>0.06552209917790926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.8636755</v>
+      </c>
+      <c r="H22">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J22">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>4.679132547895334</v>
+      </c>
+      <c r="R22">
+        <v>28.074795287372</v>
+      </c>
+      <c r="S22">
+        <v>0.0002183824834986051</v>
+      </c>
+      <c r="T22">
+        <v>0.0001585840389883449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.8636755</v>
+      </c>
+      <c r="H23">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J23">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>235.9166416422964</v>
+      </c>
+      <c r="R23">
+        <v>1415.499849853778</v>
+      </c>
+      <c r="S23">
+        <v>0.01101060112598621</v>
+      </c>
+      <c r="T23">
+        <v>0.007995630282589332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.8636755</v>
+      </c>
+      <c r="H24">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J24">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>0.511079267789</v>
+      </c>
+      <c r="R24">
+        <v>3.066475606734</v>
+      </c>
+      <c r="S24">
+        <v>2.3852874143224E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.732137606694669E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.8636755</v>
+      </c>
+      <c r="H25">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J25">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>2.531178820911</v>
+      </c>
+      <c r="R25">
+        <v>15.187072925466</v>
+      </c>
+      <c r="S25">
+        <v>0.0001181341010179863</v>
+      </c>
+      <c r="T25">
+        <v>8.578610601710226E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.8636755</v>
+      </c>
+      <c r="H26">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J26">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>73.67421035976299</v>
+      </c>
+      <c r="R26">
+        <v>294.696841439052</v>
+      </c>
+      <c r="S26">
+        <v>0.003438491400591031</v>
+      </c>
+      <c r="T26">
+        <v>0.001664632454632133</v>
       </c>
     </row>
   </sheetData>
